--- a/natmiOut/OldD4/LR-pairs_lrc2p/Icam1-Itgax.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Icam1-Itgax.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,55 +531,55 @@
         <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>19.6189606114005</v>
+        <v>22.481209</v>
       </c>
       <c r="H2">
-        <v>19.6189606114005</v>
+        <v>67.44362700000001</v>
       </c>
       <c r="I2">
-        <v>0.1658231650951863</v>
+        <v>0.1656226259370683</v>
       </c>
       <c r="J2">
-        <v>0.1658231650951863</v>
+        <v>0.166106832923046</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>22.9015189506153</v>
+        <v>0.007501333333333333</v>
       </c>
       <c r="N2">
-        <v>22.9015189506153</v>
+        <v>0.022504</v>
       </c>
       <c r="O2">
-        <v>0.5722173173652774</v>
+        <v>0.0001081481021555516</v>
       </c>
       <c r="P2">
-        <v>0.5722173173652774</v>
+        <v>0.0001081481021555516</v>
       </c>
       <c r="Q2">
-        <v>449.3039982333637</v>
+        <v>0.1686390424453333</v>
       </c>
       <c r="R2">
-        <v>449.3039982333637</v>
+        <v>1.517751382008</v>
       </c>
       <c r="S2">
-        <v>0.09488688668778698</v>
+        <v>1.791177266911278E-05</v>
       </c>
       <c r="T2">
-        <v>0.09488688668778698</v>
+        <v>1.796413873569672E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,60 +593,60 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>19.6189606114005</v>
+        <v>22.481209</v>
       </c>
       <c r="H3">
-        <v>19.6189606114005</v>
+        <v>67.44362700000001</v>
       </c>
       <c r="I3">
-        <v>0.1658231650951863</v>
+        <v>0.1656226259370683</v>
       </c>
       <c r="J3">
-        <v>0.1658231650951863</v>
+        <v>0.166106832923046</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>17.1208960578351</v>
+        <v>0.09398100000000002</v>
       </c>
       <c r="N3">
-        <v>17.1208960578351</v>
+        <v>0.2819430000000001</v>
       </c>
       <c r="O3">
-        <v>0.4277826826347227</v>
+        <v>0.001354941360026782</v>
       </c>
       <c r="P3">
-        <v>0.4277826826347227</v>
+        <v>0.001354941360026782</v>
       </c>
       <c r="Q3">
-        <v>335.8941853905489</v>
+        <v>2.112806503029001</v>
       </c>
       <c r="R3">
-        <v>335.8941853905489</v>
+        <v>19.015258527261</v>
       </c>
       <c r="S3">
-        <v>0.07093627840739929</v>
+        <v>0.0002244089460383783</v>
       </c>
       <c r="T3">
-        <v>0.07093627840739929</v>
+        <v>0.0002250650181104933</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>25</v>
@@ -658,57 +658,57 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>28.3320318614859</v>
+        <v>22.481209</v>
       </c>
       <c r="H4">
-        <v>28.3320318614859</v>
+        <v>67.44362700000001</v>
       </c>
       <c r="I4">
-        <v>0.2394676909702955</v>
+        <v>0.1656226259370683</v>
       </c>
       <c r="J4">
-        <v>0.2394676909702955</v>
+        <v>0.166106832923046</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>22.9015189506153</v>
+        <v>44.63560033333334</v>
       </c>
       <c r="N4">
-        <v>22.9015189506153</v>
+        <v>133.906801</v>
       </c>
       <c r="O4">
-        <v>0.5722173173652774</v>
+        <v>0.643519658454991</v>
       </c>
       <c r="P4">
-        <v>0.5722173173652774</v>
+        <v>0.6435196584549912</v>
       </c>
       <c r="Q4">
-        <v>648.8465645852558</v>
+        <v>1003.462259934137</v>
       </c>
       <c r="R4">
-        <v>648.8465645852558</v>
+        <v>9031.160339407228</v>
       </c>
       <c r="S4">
-        <v>0.1370275597226797</v>
+        <v>0.106581415675441</v>
       </c>
       <c r="T4">
-        <v>0.1370275597226797</v>
+        <v>0.1068930123896788</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -720,57 +720,57 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>28.3320318614859</v>
+        <v>22.481209</v>
       </c>
       <c r="H5">
-        <v>28.3320318614859</v>
+        <v>67.44362700000001</v>
       </c>
       <c r="I5">
-        <v>0.2394676909702955</v>
+        <v>0.1656226259370683</v>
       </c>
       <c r="J5">
-        <v>0.2394676909702955</v>
+        <v>0.166106832923046</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>17.1208960578351</v>
+        <v>24.62459066666667</v>
       </c>
       <c r="N5">
-        <v>17.1208960578351</v>
+        <v>73.873772</v>
       </c>
       <c r="O5">
-        <v>0.4277826826347227</v>
+        <v>0.3550172520828265</v>
       </c>
       <c r="P5">
-        <v>0.4277826826347227</v>
+        <v>0.3550172520828265</v>
       </c>
       <c r="Q5">
-        <v>485.0697726077724</v>
+        <v>553.5905693167828</v>
       </c>
       <c r="R5">
-        <v>485.0697726077724</v>
+        <v>4982.315123851045</v>
       </c>
       <c r="S5">
-        <v>0.1024401312476158</v>
+        <v>0.05879888954291986</v>
       </c>
       <c r="T5">
-        <v>0.1024401312476158</v>
+        <v>0.05897079137652096</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -779,60 +779,60 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>29.8613746487719</v>
+        <v>29.50180766666667</v>
       </c>
       <c r="H6">
-        <v>29.8613746487719</v>
+        <v>88.50542300000001</v>
       </c>
       <c r="I6">
-        <v>0.2523939854120047</v>
+        <v>0.2173444878184117</v>
       </c>
       <c r="J6">
-        <v>0.2523939854120047</v>
+        <v>0.2179799065528387</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>22.9015189506153</v>
+        <v>0.007501333333333333</v>
       </c>
       <c r="N6">
-        <v>22.9015189506153</v>
+        <v>0.022504</v>
       </c>
       <c r="O6">
-        <v>0.5722173173652774</v>
+        <v>0.0001081481021555516</v>
       </c>
       <c r="P6">
-        <v>0.5722173173652774</v>
+        <v>0.0001081481021555516</v>
       </c>
       <c r="Q6">
-        <v>683.870837410273</v>
+        <v>0.2213028932435556</v>
       </c>
       <c r="R6">
-        <v>683.870837410273</v>
+        <v>1.991726039192</v>
       </c>
       <c r="S6">
-        <v>0.1444242092515883</v>
+        <v>2.350539387153163E-05</v>
       </c>
       <c r="T6">
-        <v>0.1444242092515883</v>
+        <v>2.3574113201734E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>25</v>
@@ -841,60 +841,60 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>29.8613746487719</v>
+        <v>29.50180766666667</v>
       </c>
       <c r="H7">
-        <v>29.8613746487719</v>
+        <v>88.50542300000001</v>
       </c>
       <c r="I7">
-        <v>0.2523939854120047</v>
+        <v>0.2173444878184117</v>
       </c>
       <c r="J7">
-        <v>0.2523939854120047</v>
+        <v>0.2179799065528387</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>17.1208960578351</v>
+        <v>0.09398100000000002</v>
       </c>
       <c r="N7">
-        <v>17.1208960578351</v>
+        <v>0.2819430000000001</v>
       </c>
       <c r="O7">
-        <v>0.4277826826347227</v>
+        <v>0.001354941360026782</v>
       </c>
       <c r="P7">
-        <v>0.4277826826347227</v>
+        <v>0.001354941360026782</v>
       </c>
       <c r="Q7">
-        <v>511.2534915056958</v>
+        <v>2.772609386321001</v>
       </c>
       <c r="R7">
-        <v>511.2534915056958</v>
+        <v>24.95348447688901</v>
       </c>
       <c r="S7">
-        <v>0.1079697761604164</v>
+        <v>0.000294489035919003</v>
       </c>
       <c r="T7">
-        <v>0.1079697761604164</v>
+        <v>0.0002953499910432141</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -906,57 +906,57 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>39.328016970482</v>
+        <v>29.50180766666667</v>
       </c>
       <c r="H8">
-        <v>39.328016970482</v>
+        <v>88.50542300000001</v>
       </c>
       <c r="I8">
-        <v>0.3324078364871638</v>
+        <v>0.2173444878184117</v>
       </c>
       <c r="J8">
-        <v>0.3324078364871638</v>
+        <v>0.2179799065528387</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>22.9015189506153</v>
+        <v>44.63560033333334</v>
       </c>
       <c r="N8">
-        <v>22.9015189506153</v>
+        <v>133.906801</v>
       </c>
       <c r="O8">
-        <v>0.5722173173652774</v>
+        <v>0.643519658454991</v>
       </c>
       <c r="P8">
-        <v>0.5722173173652774</v>
+        <v>0.6435196584549912</v>
       </c>
       <c r="Q8">
-        <v>900.6713259396137</v>
+        <v>1316.830896120203</v>
       </c>
       <c r="R8">
-        <v>900.6713259396137</v>
+        <v>11851.47806508182</v>
       </c>
       <c r="S8">
-        <v>0.1902095204658806</v>
+        <v>0.1398654505679792</v>
       </c>
       <c r="T8">
-        <v>0.1902095204658806</v>
+        <v>0.1402743550149337</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
@@ -968,57 +968,57 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>39.328016970482</v>
+        <v>29.50180766666667</v>
       </c>
       <c r="H9">
-        <v>39.328016970482</v>
+        <v>88.50542300000001</v>
       </c>
       <c r="I9">
-        <v>0.3324078364871638</v>
+        <v>0.2173444878184117</v>
       </c>
       <c r="J9">
-        <v>0.3324078364871638</v>
+        <v>0.2179799065528387</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>17.1208960578351</v>
+        <v>24.62459066666667</v>
       </c>
       <c r="N9">
-        <v>17.1208960578351</v>
+        <v>73.873772</v>
       </c>
       <c r="O9">
-        <v>0.4277826826347227</v>
+        <v>0.3550172520828265</v>
       </c>
       <c r="P9">
-        <v>0.4277826826347227</v>
+        <v>0.3550172520828265</v>
       </c>
       <c r="Q9">
-        <v>673.3308907123971</v>
+        <v>726.4699377183952</v>
       </c>
       <c r="R9">
-        <v>673.3308907123971</v>
+        <v>6538.229439465556</v>
       </c>
       <c r="S9">
-        <v>0.1421983160212832</v>
+        <v>0.07716104282064187</v>
       </c>
       <c r="T9">
-        <v>0.1421983160212832</v>
+        <v>0.07738662743366012</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1027,117 +1027,737 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.17216047989684</v>
+        <v>42.765269</v>
       </c>
       <c r="H10">
-        <v>1.17216047989684</v>
+        <v>128.295807</v>
       </c>
       <c r="I10">
-        <v>0.009907322035349725</v>
+        <v>0.3150585073376215</v>
       </c>
       <c r="J10">
-        <v>0.009907322035349725</v>
+        <v>0.3159795984589671</v>
       </c>
       <c r="K10">
         <v>1</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>22.9015189506153</v>
+        <v>0.007501333333333333</v>
       </c>
       <c r="N10">
-        <v>22.9015189506153</v>
+        <v>0.022504</v>
       </c>
       <c r="O10">
-        <v>0.5722173173652774</v>
+        <v>0.0001081481021555516</v>
       </c>
       <c r="P10">
-        <v>0.5722173173652774</v>
+        <v>0.0001081481021555516</v>
       </c>
       <c r="Q10">
-        <v>26.84425544351981</v>
+        <v>0.3207965378586666</v>
       </c>
       <c r="R10">
-        <v>26.84425544351981</v>
+        <v>2.887168840728</v>
       </c>
       <c r="S10">
-        <v>0.005669141237341719</v>
+        <v>3.407297963652469E-05</v>
       </c>
       <c r="T10">
-        <v>0.005669141237341719</v>
+        <v>3.417259389321055E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>42.765269</v>
+      </c>
+      <c r="H11">
+        <v>128.295807</v>
+      </c>
+      <c r="I11">
+        <v>0.3150585073376215</v>
+      </c>
+      <c r="J11">
+        <v>0.3159795984589671</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M11">
+        <v>0.09398100000000002</v>
+      </c>
+      <c r="N11">
+        <v>0.2819430000000001</v>
+      </c>
+      <c r="O11">
+        <v>0.001354941360026782</v>
+      </c>
+      <c r="P11">
+        <v>0.001354941360026782</v>
+      </c>
+      <c r="Q11">
+        <v>4.019122745889001</v>
+      </c>
+      <c r="R11">
+        <v>36.172104713001</v>
+      </c>
+      <c r="S11">
+        <v>0.0004268858024200446</v>
+      </c>
+      <c r="T11">
+        <v>0.0004281338268767092</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>42.765269</v>
+      </c>
+      <c r="H12">
+        <v>128.295807</v>
+      </c>
+      <c r="I12">
+        <v>0.3150585073376215</v>
+      </c>
+      <c r="J12">
+        <v>0.3159795984589671</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>44.63560033333334</v>
+      </c>
+      <c r="N12">
+        <v>133.906801</v>
+      </c>
+      <c r="O12">
+        <v>0.643519658454991</v>
+      </c>
+      <c r="P12">
+        <v>0.6435196584549912</v>
+      </c>
+      <c r="Q12">
+        <v>1908.85345523149</v>
+      </c>
+      <c r="R12">
+        <v>17179.6810970834</v>
+      </c>
+      <c r="S12">
+        <v>0.2027463430352455</v>
+      </c>
+      <c r="T12">
+        <v>0.2033390832790597</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>42.765269</v>
+      </c>
+      <c r="H13">
+        <v>128.295807</v>
+      </c>
+      <c r="I13">
+        <v>0.3150585073376215</v>
+      </c>
+      <c r="J13">
+        <v>0.3159795984589671</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>24.62459066666667</v>
+      </c>
+      <c r="N13">
+        <v>73.873772</v>
+      </c>
+      <c r="O13">
+        <v>0.3550172520828265</v>
+      </c>
+      <c r="P13">
+        <v>0.3550172520828265</v>
+      </c>
+      <c r="Q13">
+        <v>1053.077243874889</v>
+      </c>
+      <c r="R13">
+        <v>9477.695194874004</v>
+      </c>
+      <c r="S13">
+        <v>0.1118512055203194</v>
+      </c>
+      <c r="T13">
+        <v>0.1121782087591374</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>39.80222300000001</v>
+      </c>
+      <c r="H14">
+        <v>119.406669</v>
+      </c>
+      <c r="I14">
+        <v>0.2932292783449848</v>
+      </c>
+      <c r="J14">
+        <v>0.2940865504976542</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M14">
+        <v>0.007501333333333333</v>
+      </c>
+      <c r="N14">
+        <v>0.022504</v>
+      </c>
+      <c r="O14">
+        <v>0.0001081481021555516</v>
+      </c>
+      <c r="P14">
+        <v>0.0001081481021555516</v>
+      </c>
+      <c r="Q14">
+        <v>0.2985697421306667</v>
+      </c>
+      <c r="R14">
+        <v>2.687127679176</v>
+      </c>
+      <c r="S14">
+        <v>3.171218994945209E-05</v>
+      </c>
+      <c r="T14">
+        <v>3.180490230579409E-05</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>39.80222300000001</v>
+      </c>
+      <c r="H15">
+        <v>119.406669</v>
+      </c>
+      <c r="I15">
+        <v>0.2932292783449848</v>
+      </c>
+      <c r="J15">
+        <v>0.2940865504976542</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M15">
+        <v>0.09398100000000002</v>
+      </c>
+      <c r="N15">
+        <v>0.2819430000000001</v>
+      </c>
+      <c r="O15">
+        <v>0.001354941360026782</v>
+      </c>
+      <c r="P15">
+        <v>0.001354941360026782</v>
+      </c>
+      <c r="Q15">
+        <v>3.740652719763002</v>
+      </c>
+      <c r="R15">
+        <v>33.66587447786701</v>
+      </c>
+      <c r="S15">
+        <v>0.0003973084772004254</v>
+      </c>
+      <c r="T15">
+        <v>0.0003984700306968764</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>39.80222300000001</v>
+      </c>
+      <c r="H16">
+        <v>119.406669</v>
+      </c>
+      <c r="I16">
+        <v>0.2932292783449848</v>
+      </c>
+      <c r="J16">
+        <v>0.2940865504976542</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>44.63560033333334</v>
+      </c>
+      <c r="N16">
+        <v>133.906801</v>
+      </c>
+      <c r="O16">
+        <v>0.643519658454991</v>
+      </c>
+      <c r="P16">
+        <v>0.6435196584549912</v>
+      </c>
+      <c r="Q16">
+        <v>1776.596118206208</v>
+      </c>
+      <c r="R16">
+        <v>15989.36506385587</v>
+      </c>
+      <c r="S16">
+        <v>0.1886988050495681</v>
+      </c>
+      <c r="T16">
+        <v>0.1892504765324569</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>39.80222300000001</v>
+      </c>
+      <c r="H17">
+        <v>119.406669</v>
+      </c>
+      <c r="I17">
+        <v>0.2932292783449848</v>
+      </c>
+      <c r="J17">
+        <v>0.2940865504976542</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>24.62459066666667</v>
+      </c>
+      <c r="N17">
+        <v>73.873772</v>
+      </c>
+      <c r="O17">
+        <v>0.3550172520828265</v>
+      </c>
+      <c r="P17">
+        <v>0.3550172520828265</v>
+      </c>
+      <c r="Q17">
+        <v>980.1134489983855</v>
+      </c>
+      <c r="R17">
+        <v>8821.021040985468</v>
+      </c>
+      <c r="S17">
+        <v>0.1041014526282668</v>
+      </c>
+      <c r="T17">
+        <v>0.1044057990321946</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
         <v>24</v>
       </c>
-      <c r="B11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>1.1870385</v>
+      </c>
+      <c r="H18">
+        <v>2.374077</v>
+      </c>
+      <c r="I18">
+        <v>0.008745100561913671</v>
+      </c>
+      <c r="J18">
+        <v>0.005847111567493934</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M18">
+        <v>0.007501333333333333</v>
+      </c>
+      <c r="N18">
+        <v>0.022504</v>
+      </c>
+      <c r="O18">
+        <v>0.0001081481021555516</v>
+      </c>
+      <c r="P18">
+        <v>0.0001081481021555516</v>
+      </c>
+      <c r="Q18">
+        <v>0.008904371468000001</v>
+      </c>
+      <c r="R18">
+        <v>0.05342622880800001</v>
+      </c>
+      <c r="S18">
+        <v>9.457660289304113E-07</v>
+      </c>
+      <c r="T18">
+        <v>6.323540191162414E-07</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>1.1870385</v>
+      </c>
+      <c r="H19">
+        <v>2.374077</v>
+      </c>
+      <c r="I19">
+        <v>0.008745100561913671</v>
+      </c>
+      <c r="J19">
+        <v>0.005847111567493934</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M19">
+        <v>0.09398100000000002</v>
+      </c>
+      <c r="N19">
+        <v>0.2819430000000001</v>
+      </c>
+      <c r="O19">
+        <v>0.001354941360026782</v>
+      </c>
+      <c r="P19">
+        <v>0.001354941360026782</v>
+      </c>
+      <c r="Q19">
+        <v>0.1115590652685</v>
+      </c>
+      <c r="R19">
+        <v>0.6693543916110002</v>
+      </c>
+      <c r="S19">
+        <v>1.184909844893028E-05</v>
+      </c>
+      <c r="T19">
+        <v>7.922493299488558E-06</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>1.1870385</v>
+      </c>
+      <c r="H20">
+        <v>2.374077</v>
+      </c>
+      <c r="I20">
+        <v>0.008745100561913671</v>
+      </c>
+      <c r="J20">
+        <v>0.005847111567493934</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>44.63560033333334</v>
+      </c>
+      <c r="N20">
+        <v>133.906801</v>
+      </c>
+      <c r="O20">
+        <v>0.643519658454991</v>
+      </c>
+      <c r="P20">
+        <v>0.6435196584549912</v>
+      </c>
+      <c r="Q20">
+        <v>52.98417606627951</v>
+      </c>
+      <c r="R20">
+        <v>317.905056397677</v>
+      </c>
+      <c r="S20">
+        <v>0.005627644126757235</v>
+      </c>
+      <c r="T20">
+        <v>0.003762731238861924</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>23</v>
       </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>1.17216047989684</v>
-      </c>
-      <c r="H11">
-        <v>1.17216047989684</v>
-      </c>
-      <c r="I11">
-        <v>0.009907322035349725</v>
-      </c>
-      <c r="J11">
-        <v>0.009907322035349725</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>17.1208960578351</v>
-      </c>
-      <c r="N11">
-        <v>17.1208960578351</v>
-      </c>
-      <c r="O11">
-        <v>0.4277826826347227</v>
-      </c>
-      <c r="P11">
-        <v>0.4277826826347227</v>
-      </c>
-      <c r="Q11">
-        <v>20.06843773941591</v>
-      </c>
-      <c r="R11">
-        <v>20.06843773941591</v>
-      </c>
-      <c r="S11">
-        <v>0.004238180798008006</v>
-      </c>
-      <c r="T11">
-        <v>0.004238180798008006</v>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>1.1870385</v>
+      </c>
+      <c r="H21">
+        <v>2.374077</v>
+      </c>
+      <c r="I21">
+        <v>0.008745100561913671</v>
+      </c>
+      <c r="J21">
+        <v>0.005847111567493934</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>24.62459066666667</v>
+      </c>
+      <c r="N21">
+        <v>73.873772</v>
+      </c>
+      <c r="O21">
+        <v>0.3550172520828265</v>
+      </c>
+      <c r="P21">
+        <v>0.3550172520828265</v>
+      </c>
+      <c r="Q21">
+        <v>29.230337168074</v>
+      </c>
+      <c r="R21">
+        <v>175.382023008444</v>
+      </c>
+      <c r="S21">
+        <v>0.003104661570678573</v>
+      </c>
+      <c r="T21">
+        <v>0.002075825481313405</v>
       </c>
     </row>
   </sheetData>
